--- a/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
+++ b/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,132 +512,182 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.72</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>009437</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>信达澳银科技创新一年定期开放混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>90.01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>009438</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>信达澳银科技创新一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>90.01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007484</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信达澳银核心科技混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006257</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银先进智造股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>200012</t>
+          <t>002251</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城中小盘成长混合</t>
+          <t>华夏军工安全灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.41</t>
+          <t>37.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005738</t>
+          <t>920003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长城智能产业灵活配置混合</t>
+          <t>中金新锐股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.52</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>450010</t>
+          <t>200012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国富策略回报混合</t>
+          <t>长城中小盘成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.46</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3643</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006769</t>
+          <t>005738</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城研究精选混合</t>
+          <t>长城智能产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.13</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3627</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001113</t>
+          <t>006769</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方大数据100指数A</t>
+          <t>长城研究精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3620</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -818,25 +938,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004344</t>
+          <t>001113</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方大数据100指数C</t>
+          <t>南方大数据100指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>93.19</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -856,15 +986,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>43.02</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.13</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>580009</t>
+          <t>450010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东吴多策略灵活配置混合</t>
+          <t>国富策略回报混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>87.06</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002251</t>
+          <t>200010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏军工安全灵活配置混合</t>
+          <t>长城双动力混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002567</t>
+          <t>920923</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成国家安全主题灵活配置混合</t>
+          <t>中金新锐股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>200001</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长城久恒灵活配置混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>200010</t>
+          <t>002703</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长城双动力混合</t>
+          <t>长城久源灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002703</t>
+          <t>002885</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长城久源灵活配置混合</t>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>200001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>长城久恒灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002885</t>
+          <t>002567</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+          <t>大成国家安全主题灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>580009</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>东吴多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>004344</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>南方大数据100指数C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
+++ b/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8154</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7891</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6840</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
+++ b/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2360,4 +2361,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9606</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5818</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5817</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4756</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4755</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4614</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
+++ b/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3101,4 +3102,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
+++ b/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3110,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3121,17 +3122,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3141,14 +3162,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.65</v>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6691</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3157,14 +3200,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.97</v>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2569</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3173,14 +3238,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.34</v>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3189,13 +3276,1251 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6986</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6712</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6515</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4690</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3805</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3575</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
+++ b/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4419,7 +4420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4430,17 +4431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4450,14 +4471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.59</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4466,14 +4509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.65</v>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4482,14 +4547,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.97</v>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4498,14 +4585,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.34</v>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3263</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4514,13 +4623,1231 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2246</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7008</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6542</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4770</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3959</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
+++ b/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5730,7 +5731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5741,17 +5742,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5761,14 +5782,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.33</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5777,14 +5820,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.59</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6443</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5793,14 +5858,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.65</v>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4458</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5809,14 +5896,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.97</v>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4950</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -5825,14 +5934,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.34</v>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9470</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -5841,13 +5972,2307 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6091</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9883</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9395</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8863</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7321</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5802</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5693</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5207</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5022</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4579</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2935</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2924</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2071</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014538</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
+++ b/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="D2" t="n">
-        <v>32.99</v>
+        <v>36.57</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>19.33</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>10.59</v>
+        <v>19.33</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>11.65</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>10.97</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>4.34</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.51</v>
       </c>
     </row>
@@ -600,6 +617,4388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5476</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6691</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4880</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3238</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2348</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9613</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8967</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7349</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城安心回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6233</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5864</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5818</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5356</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4974</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华盛利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3700</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3584</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2693</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013387</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城价值领航混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012312</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013847</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013674</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>016059</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015684</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华盛利混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012313</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013388</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长城价值领航混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015722</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014831</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013675</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014832</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013848</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>016061</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>014538</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长城研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>015965</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>长城安心回报混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3000,1316 +7399,6 @@
       </c>
       <c r="H63" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004224</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>63.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.9856</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002251</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏军工安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>44.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.1198</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>72.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6637</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002983</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3263</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011148</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.56</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2246</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002345</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏高端制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>23.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9764</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010410</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城品质成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>29.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>70.65</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7008</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008960</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6542</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>580009</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东吴多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.46</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4770</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>200007</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长城安心回报混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11.42</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>71.80</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4488</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>200012</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长城中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.65</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>84.26</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3959</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011455</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3896</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160143</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方创业板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>84.71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3629</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000977</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长城环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2985</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005738</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长城智能产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>84.35</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2766</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010049</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>81.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2246</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006769</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长城研究精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>82.49</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1635</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>014189</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方专精特新混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>30.05</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1442</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002703</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>长城久源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.80</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1240</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002542</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>长城久鼎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>81.60</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1193</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010411</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长城品质成长混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>70.65</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0564</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002885</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0439</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>014190</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方专精特新混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>30.05</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004091</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>58.32</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0305</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>010050</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>81.13</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011456</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002145</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>诺安景鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>83.45</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>501002</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>长信价值优选混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>81.36</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>162107</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>金鹰量化精选股票（LOF）</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009327</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>79.83</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004092</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>58.32</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>79.83</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006992</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>嘉合锦创优势精选混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>74.79</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4374,32 +7463,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010049</t>
+          <t>004224</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城成长先锋混合A</t>
+          <t>南方军工改革灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.67</t>
+          <t>63.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>86.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6691</t>
+          <t>4.9856</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -4412,36 +7501,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002345</t>
+          <t>002251</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏高端制造灵活配置混合</t>
+          <t>华夏军工安全灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.87</t>
+          <t>44.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2569</t>
+          <t>4.1198</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4450,36 +7539,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010410</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城品质成长混合A</t>
+          <t>华夏成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.19</t>
+          <t>31.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.77</t>
+          <t>72.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8288</t>
+          <t>1.6637</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4488,36 +7577,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008960</t>
+          <t>002983</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合C</t>
+          <t>长信国防军工量化灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>26.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6986</t>
+          <t>1.3263</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4526,36 +7615,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>200007</t>
+          <t>011148</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城安心回报混合</t>
+          <t>南方军工改革灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.28</t>
+          <t>15.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.69</t>
+          <t>86.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6712</t>
+          <t>1.2246</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -4564,36 +7653,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011188</t>
+          <t>002345</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合A</t>
+          <t>华夏高端制造灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.87</t>
+          <t>23.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6515</t>
+          <t>0.9764</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -4602,36 +7691,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>200012</t>
+          <t>010410</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城中小盘成长混合</t>
+          <t>长城品质成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15.79</t>
+          <t>29.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>70.65</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4690</t>
+          <t>0.7008</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -4640,36 +7729,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002251</t>
+          <t>008960</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏军工安全灵活配置混合</t>
+          <t>长信国防军工量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4521</t>
+          <t>0.6542</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -4678,36 +7767,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005738</t>
+          <t>580009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城智能产业灵活配置混合</t>
+          <t>东吴多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.71</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3978</t>
+          <t>0.4770</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -4716,36 +7805,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000977</t>
+          <t>200007</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长城环保主题灵活配置混合</t>
+          <t>长城安心回报混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.04</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>71.80</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3805</t>
+          <t>0.4488</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -4754,32 +7843,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>160143</t>
+          <t>200012</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方创业板2年定期开放混合</t>
+          <t>长城中小盘成长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.73</t>
+          <t>84.26</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3647</t>
+          <t>0.3959</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4802,26 +7891,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.20</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.53</t>
+          <t>79.15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3575</t>
+          <t>0.3896</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -4830,36 +7919,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002983</t>
+          <t>160143</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合A</t>
+          <t>南方创业板2年定期开放混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>84.71</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3397</t>
+          <t>0.3629</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -4868,36 +7957,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001113</t>
+          <t>000977</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方大数据100指数A</t>
+          <t>长城环保主题灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20.79</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>81.27</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.3139</t>
+          <t>0.2985</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -4906,36 +7995,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>580009</t>
+          <t>005738</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东吴多策略灵活配置混合</t>
+          <t>长城智能产业灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>84.35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.3056</t>
+          <t>0.2766</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -4944,36 +8033,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006769</t>
+          <t>010049</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长城研究精选混合</t>
+          <t>长城成长先锋混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>81.13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.3030</t>
+          <t>0.2246</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -4982,36 +8071,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010602</t>
+          <t>006769</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长城均衡优选混合</t>
+          <t>长城研究精选混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>85.87</t>
+          <t>82.49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1740</t>
+          <t>0.1635</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -5020,36 +8109,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011223</t>
+          <t>014189</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合C</t>
+          <t>南方专精特新混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>30.05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1633</t>
+          <t>0.1442</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -5058,36 +8147,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>002703</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
+          <t>长城久源灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12.31</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>89.80</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1613</t>
+          <t>0.1240</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -5106,26 +8195,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>88.76</t>
+          <t>81.60</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1606</t>
+          <t>0.1193</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -5134,36 +8223,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009874</t>
+          <t>010411</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>九泰久睿量化股票</t>
+          <t>长城品质成长混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>70.65</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1402</t>
+          <t>0.0564</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -5182,26 +8271,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1244</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -5210,36 +8299,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010411</t>
+          <t>014190</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>长城品质成长混合C</t>
+          <t>南方专精特新混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>73.77</t>
+          <t>30.05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0664</t>
+          <t>0.0327</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -5248,36 +8337,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009327</t>
+          <t>004091</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东兴兴晟混合A</t>
+          <t>博时沪港深价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>58.32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0435</t>
+          <t>0.0305</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -5296,26 +8385,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>81.13</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -5334,26 +8423,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>75.53</t>
+          <t>79.15</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -5362,36 +8451,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011500</t>
+          <t>002145</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>九泰量化新兴产业混合型证券投资基金</t>
+          <t>诺安景鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>83.45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0216</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -5400,36 +8489,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>004344</t>
+          <t>501002</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>南方大数据100指数C</t>
+          <t>长信价值优选混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>81.36</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -5438,36 +8527,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>673081</t>
+          <t>162107</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>西部利得祥运灵活配置混合A</t>
+          <t>金鹰量化精选股票（LOF）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>51.25</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -5476,36 +8565,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>673083</t>
+          <t>009327</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>西部利得祥运灵活配置混合C</t>
+          <t>东兴兴晟混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>51.25</t>
+          <t>79.83</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -5514,36 +8603,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009328</t>
+          <t>004092</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东兴兴晟混合C</t>
+          <t>博时沪港深价值优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>58.32</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -5552,36 +8641,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>011025</t>
+          <t>009328</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>九泰久元量化股票A</t>
+          <t>东兴兴晟混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>79.83</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -5590,34 +8679,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>011026</t>
+          <t>006992</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>九泰久元量化股票C</t>
+          <t>嘉合锦创优势精选混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>74.79</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5626,6 +8717,1314 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6691</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2569</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6986</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6712</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6515</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4690</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3805</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3575</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6365,7 +10764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7333,7 +11732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8035,7 +12434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
+++ b/数据整理/stocks/A股/创业板/300593-新雷能.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>36.57</v>
+        <v>28.44</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="D3" t="n">
-        <v>32.99</v>
+        <v>36.57</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>19.33</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>10.59</v>
+        <v>19.33</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>11.65</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>10.97</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>4.34</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,276 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +880,3252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3972</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2514</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0964</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4038</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0402</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9790</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8354</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6864</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5581</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城安心回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5299</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4173</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2666</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商行業領先混合型證券投資基金 H</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时创业板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>66.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013847</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015965</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城安心回报混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015722</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>58.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>58.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012495</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>民生加银双核动力混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013848</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>016924</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>58.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4998,7 +8507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7399,1316 +10908,6 @@
       </c>
       <c r="H63" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004224</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>63.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.9856</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002251</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏军工安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>44.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.1198</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>72.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6637</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002983</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3263</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011148</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.56</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2246</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002345</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏高端制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>23.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9764</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010410</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城品质成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>29.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>70.65</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7008</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008960</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6542</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>580009</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东吴多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.46</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4770</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>200007</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长城安心回报混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11.42</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>71.80</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4488</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>200012</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长城中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.65</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>84.26</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3959</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011455</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3896</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160143</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方创业板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>84.71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3629</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000977</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长城环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2985</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005738</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长城智能产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>84.35</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2766</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010049</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>81.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2246</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006769</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长城研究精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>82.49</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1635</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>014189</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方专精特新混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>30.05</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1442</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002703</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>长城久源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.80</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1240</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002542</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>长城久鼎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>81.60</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1193</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010411</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长城品质成长混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>70.65</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0564</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002885</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0439</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>014190</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方专精特新混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>30.05</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004091</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>58.32</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0305</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>010050</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>81.13</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011456</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002145</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>诺安景鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>83.45</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>501002</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>长信价值优选混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>81.36</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>162107</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>金鹰量化精选股票（LOF）</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009327</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>79.83</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004092</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>58.32</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>79.83</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006992</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>嘉合锦创优势精选混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>74.79</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -8773,32 +10972,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010049</t>
+          <t>004224</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城成长先锋混合A</t>
+          <t>南方军工改革灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.67</t>
+          <t>63.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>86.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6691</t>
+          <t>4.9856</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -8811,36 +11010,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002345</t>
+          <t>002251</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏高端制造灵活配置混合</t>
+          <t>华夏军工安全灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.87</t>
+          <t>44.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2569</t>
+          <t>4.1198</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8849,36 +11048,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010410</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城品质成长混合A</t>
+          <t>华夏成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.19</t>
+          <t>31.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.77</t>
+          <t>72.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8288</t>
+          <t>1.6637</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8887,36 +11086,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008960</t>
+          <t>002983</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合C</t>
+          <t>长信国防军工量化灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>26.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6986</t>
+          <t>1.3263</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -8925,36 +11124,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>200007</t>
+          <t>011148</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城安心回报混合</t>
+          <t>南方军工改革灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.28</t>
+          <t>15.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.69</t>
+          <t>86.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6712</t>
+          <t>1.2246</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -8963,36 +11162,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011188</t>
+          <t>002345</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合A</t>
+          <t>华夏高端制造灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.87</t>
+          <t>23.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6515</t>
+          <t>0.9764</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -9001,36 +11200,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>200012</t>
+          <t>010410</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城中小盘成长混合</t>
+          <t>长城品质成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15.79</t>
+          <t>29.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>70.65</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4690</t>
+          <t>0.7008</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -9039,36 +11238,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002251</t>
+          <t>008960</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏军工安全灵活配置混合</t>
+          <t>长信国防军工量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4521</t>
+          <t>0.6542</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -9077,36 +11276,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005738</t>
+          <t>580009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城智能产业灵活配置混合</t>
+          <t>东吴多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.71</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3978</t>
+          <t>0.4770</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -9115,36 +11314,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000977</t>
+          <t>200007</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长城环保主题灵活配置混合</t>
+          <t>长城安心回报混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.04</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>71.80</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3805</t>
+          <t>0.4488</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -9153,32 +11352,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>160143</t>
+          <t>200012</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方创业板2年定期开放混合</t>
+          <t>长城中小盘成长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.73</t>
+          <t>84.26</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3647</t>
+          <t>0.3959</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -9201,26 +11400,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.20</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.53</t>
+          <t>79.15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3575</t>
+          <t>0.3896</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -9229,36 +11428,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002983</t>
+          <t>160143</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合A</t>
+          <t>南方创业板2年定期开放混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>84.71</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3397</t>
+          <t>0.3629</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -9267,36 +11466,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001113</t>
+          <t>000977</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方大数据100指数A</t>
+          <t>长城环保主题灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20.79</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>81.27</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.3139</t>
+          <t>0.2985</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -9305,36 +11504,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>580009</t>
+          <t>005738</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东吴多策略灵活配置混合</t>
+          <t>长城智能产业灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>84.35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.3056</t>
+          <t>0.2766</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -9343,36 +11542,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006769</t>
+          <t>010049</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长城研究精选混合</t>
+          <t>长城成长先锋混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>81.13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.3030</t>
+          <t>0.2246</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -9381,36 +11580,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010602</t>
+          <t>006769</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长城均衡优选混合</t>
+          <t>长城研究精选混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>85.87</t>
+          <t>82.49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1740</t>
+          <t>0.1635</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -9419,36 +11618,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011223</t>
+          <t>014189</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合C</t>
+          <t>南方专精特新混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>30.05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1633</t>
+          <t>0.1442</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -9457,36 +11656,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>002703</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
+          <t>长城久源灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12.31</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>89.80</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1613</t>
+          <t>0.1240</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -9505,26 +11704,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>88.76</t>
+          <t>81.60</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1606</t>
+          <t>0.1193</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -9533,36 +11732,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009874</t>
+          <t>010411</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>九泰久睿量化股票</t>
+          <t>长城品质成长混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>70.65</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1402</t>
+          <t>0.0564</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -9581,26 +11780,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1244</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -9609,36 +11808,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010411</t>
+          <t>014190</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>长城品质成长混合C</t>
+          <t>南方专精特新混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>73.77</t>
+          <t>30.05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0664</t>
+          <t>0.0327</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -9647,36 +11846,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009327</t>
+          <t>004091</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东兴兴晟混合A</t>
+          <t>博时沪港深价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>58.32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0435</t>
+          <t>0.0305</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -9695,26 +11894,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>81.13</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -9733,26 +11932,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>75.53</t>
+          <t>79.15</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -9761,36 +11960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011500</t>
+          <t>002145</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>九泰量化新兴产业混合型证券投资基金</t>
+          <t>诺安景鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>83.45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0216</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -9799,36 +11998,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>004344</t>
+          <t>501002</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>南方大数据100指数C</t>
+          <t>长信价值优选混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>81.36</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -9837,36 +12036,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>673081</t>
+          <t>162107</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>西部利得祥运灵活配置混合A</t>
+          <t>金鹰量化精选股票（LOF）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>51.25</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -9875,36 +12074,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>673083</t>
+          <t>009327</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>西部利得祥运灵活配置混合C</t>
+          <t>东兴兴晟混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>51.25</t>
+          <t>79.83</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -9913,36 +12112,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009328</t>
+          <t>004092</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东兴兴晟混合C</t>
+          <t>博时沪港深价值优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>58.32</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -9951,36 +12150,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>011025</t>
+          <t>009328</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>九泰久元量化股票A</t>
+          <t>东兴兴晟混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>79.83</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -9989,34 +12188,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>011026</t>
+          <t>006992</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>九泰久元量化股票C</t>
+          <t>嘉合锦创优势精选混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>74.79</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -10025,6 +12226,1314 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6691</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2569</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6986</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6712</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6515</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4690</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3805</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3575</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10764,7 +14273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11732,7 +15241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12432,250 +15941,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009511</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银研究优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5040</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006257</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信达澳银先进智造股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4023</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009437</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3230</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007484</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信达澳银核心科技混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2295</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009438</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0516</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>